--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sourishdutta/Desktop/ClimateChangeAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FA61A-718E-A348-80BF-E48F3DEA7CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4C4CF2-BE83-9646-B8A4-24BE2FC91E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="4160" windowWidth="27640" windowHeight="16940" xr2:uid="{63C1825B-B6FE-E247-9E38-2B8505701EA0}"/>
+    <workbookView xWindow="1260" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{63C1825B-B6FE-E247-9E38-2B8505701EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>National Greenhouse Gas Inventories and Targets</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>https://ourworldindata.org/grapher/total-ghg-emissions-excluding-lufc?tab=chart#sources-and-processing</t>
+  </si>
+  <si>
+    <t>global ocean heat content</t>
+  </si>
+  <si>
+    <t>NOAA</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/global-ocean-heat-content/</t>
   </si>
 </sst>
 </file>
@@ -98,9 +107,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85371742-D42F-DC45-907F-DF3C56212DF4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +447,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -458,6 +466,17 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
